--- a/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/MissionControl/LocalizationDef.xlsx
@@ -1698,17 +1698,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1728,15 +1723,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="6">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2031,18 +2024,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="78.85546875" customWidth="1" style="2"/>
     <col min="4" max="4" width="13.28515625" customWidth="1" style="2"/>
-    <col min="5" max="12" width="9.140625" customWidth="1" style="2"/>
-    <col min="13" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="14" width="9.140625" customWidth="1" style="2"/>
+    <col min="15" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2052,7 +2045,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2">
@@ -2066,7 +2059,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
@@ -2080,7 +2073,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
@@ -2094,7 +2087,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -2108,7 +2101,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -2122,7 +2115,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -2136,7 +2129,7 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -2150,7 +2143,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
@@ -2164,7 +2157,7 @@
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2">
@@ -2178,7 +2171,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2">
@@ -2192,7 +2185,7 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2">
@@ -2206,7 +2199,7 @@
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="2">
@@ -2220,7 +2213,7 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="2">
@@ -2234,7 +2227,7 @@
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2">
@@ -2248,7 +2241,7 @@
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2">
@@ -2262,7 +2255,7 @@
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="2">
@@ -2276,7 +2269,7 @@
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2">
@@ -2290,7 +2283,7 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2">
@@ -2304,7 +2297,7 @@
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="2">
@@ -2318,7 +2311,7 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="2">
@@ -2332,7 +2325,7 @@
       <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2">
@@ -2346,7 +2339,7 @@
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="2">
@@ -2360,7 +2353,7 @@
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="2">
@@ -2374,7 +2367,7 @@
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="2">
@@ -2388,7 +2381,7 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="2">
@@ -2402,7 +2395,7 @@
       <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="2">
@@ -2416,7 +2409,7 @@
       <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="2">
@@ -2430,7 +2423,7 @@
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="2">
@@ -2444,7 +2437,7 @@
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2">
@@ -2458,7 +2451,7 @@
       <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="2">
@@ -2472,7 +2465,7 @@
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="2">
@@ -2486,7 +2479,7 @@
       <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="2">
@@ -2500,7 +2493,7 @@
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="2">
@@ -2514,7 +2507,7 @@
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="2">
@@ -2528,7 +2521,7 @@
       <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="2">
@@ -2542,7 +2535,7 @@
       <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="2">
@@ -2556,7 +2549,7 @@
       <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="2">
@@ -2570,7 +2563,7 @@
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="2">
@@ -2584,7 +2577,7 @@
       <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="2">
@@ -2598,7 +2591,7 @@
       <c r="B40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E40" s="2">
@@ -2612,7 +2605,7 @@
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E41" s="2">
@@ -2626,7 +2619,7 @@
       <c r="B42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="2">
@@ -2640,7 +2633,7 @@
       <c r="B43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E43" s="2">
@@ -2654,7 +2647,7 @@
       <c r="B44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E44" s="2">
@@ -2668,7 +2661,7 @@
       <c r="B45" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E45" s="2">
@@ -2682,7 +2675,7 @@
       <c r="B46" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E46" s="2">
@@ -2696,7 +2689,7 @@
       <c r="B47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E47" s="2">
@@ -2710,7 +2703,7 @@
       <c r="B48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E48" s="2">
@@ -2724,7 +2717,7 @@
       <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E49" s="2">
@@ -2738,7 +2731,7 @@
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E50" s="2">
@@ -2752,7 +2745,7 @@
       <c r="B51" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E51" s="2">
@@ -2766,7 +2759,7 @@
       <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="2">
@@ -2780,7 +2773,7 @@
       <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E53" s="2">
@@ -2794,7 +2787,7 @@
       <c r="B54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E54" s="2">
@@ -2808,7 +2801,7 @@
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E55" s="2">
@@ -2822,7 +2815,7 @@
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>163</v>
       </c>
       <c r="E56" s="2">
@@ -2836,7 +2829,7 @@
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="2">
@@ -2850,7 +2843,7 @@
       <c r="B58" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E58" s="2">
@@ -2864,7 +2857,7 @@
       <c r="B59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E59" s="2">
@@ -2878,7 +2871,7 @@
       <c r="B60" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="2">
@@ -2892,7 +2885,7 @@
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="2">
@@ -2906,7 +2899,7 @@
       <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="2">
@@ -2920,7 +2913,7 @@
       <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E63" s="2">
@@ -2934,7 +2927,7 @@
       <c r="B64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E64" s="2">
@@ -2948,7 +2941,7 @@
       <c r="B65" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E65" s="2">
@@ -2962,7 +2955,7 @@
       <c r="B66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E66" s="2">
@@ -2976,7 +2969,7 @@
       <c r="B67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E67" s="2">
@@ -2990,7 +2983,7 @@
       <c r="B68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="2">
@@ -3004,7 +2997,7 @@
       <c r="B69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E69" s="2">
@@ -3018,7 +3011,7 @@
       <c r="B70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2">
@@ -3032,7 +3025,7 @@
       <c r="B71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E71" s="2">
@@ -3046,7 +3039,7 @@
       <c r="B72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E72" s="2">
@@ -3060,7 +3053,7 @@
       <c r="B73" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E73" s="2">
@@ -3074,7 +3067,7 @@
       <c r="B74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E74" s="2">
@@ -3088,7 +3081,7 @@
       <c r="B75" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E75" s="2">
@@ -3102,7 +3095,7 @@
       <c r="B76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E76" s="2">
@@ -3116,7 +3109,7 @@
       <c r="B77" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E77" s="2">
@@ -3130,7 +3123,7 @@
       <c r="B78" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E78" s="2">
@@ -3144,7 +3137,7 @@
       <c r="B79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E79" s="2">
@@ -3158,7 +3151,7 @@
       <c r="B80" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E80" s="2">
@@ -3172,7 +3165,7 @@
       <c r="B81" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E81" s="2">
@@ -3186,7 +3179,7 @@
       <c r="B82" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E82" s="2">
@@ -3200,7 +3193,7 @@
       <c r="B83" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>236</v>
       </c>
       <c r="E83" s="2">
@@ -3214,7 +3207,7 @@
       <c r="B84" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E84" s="2">
@@ -3228,7 +3221,7 @@
       <c r="B85" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E85" s="2">
@@ -3242,7 +3235,7 @@
       <c r="B86" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E86" s="2">
@@ -3256,7 +3249,7 @@
       <c r="B87" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E87" s="2">
@@ -3270,7 +3263,7 @@
       <c r="B88" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E88" s="2">
@@ -3284,7 +3277,7 @@
       <c r="B89" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E89" s="2">
@@ -3298,7 +3291,7 @@
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E90" s="2">
@@ -3312,7 +3305,7 @@
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E91" s="2">
@@ -3326,7 +3319,7 @@
       <c r="B92" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E92" s="2">
@@ -3340,7 +3333,7 @@
       <c r="B93" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E93" s="2">
@@ -3354,7 +3347,7 @@
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E94" s="2">
@@ -3368,7 +3361,7 @@
       <c r="B95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E95" s="2">
@@ -3382,7 +3375,7 @@
       <c r="B96" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E96" s="2">
@@ -3396,7 +3389,7 @@
       <c r="B97" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>266</v>
       </c>
       <c r="E97" s="2">
@@ -3410,7 +3403,7 @@
       <c r="B98" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>269</v>
       </c>
       <c r="E98" s="2">
@@ -3424,7 +3417,7 @@
       <c r="B99" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E99" s="2">
@@ -3438,7 +3431,7 @@
       <c r="B100" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="2">
@@ -3452,7 +3445,7 @@
       <c r="B101" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>278</v>
       </c>
       <c r="E101" s="2">
@@ -3466,7 +3459,7 @@
       <c r="B102" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>281</v>
       </c>
       <c r="E102" s="2">
@@ -3480,7 +3473,7 @@
       <c r="B103" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E103" s="2">
@@ -3494,7 +3487,7 @@
       <c r="B104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>287</v>
       </c>
       <c r="E104" s="2">
@@ -3508,7 +3501,7 @@
       <c r="B105" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>290</v>
       </c>
       <c r="E105" s="2">
@@ -3522,7 +3515,7 @@
       <c r="B106" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E106" s="2">
@@ -3536,7 +3529,7 @@
       <c r="B107" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E107" s="2">
@@ -3550,7 +3543,7 @@
       <c r="B108" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>299</v>
       </c>
       <c r="E108" s="2">
@@ -3564,7 +3557,7 @@
       <c r="B109" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>302</v>
       </c>
       <c r="E109" s="2">
@@ -3578,7 +3571,7 @@
       <c r="B110" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E110" s="2">
@@ -3592,7 +3585,7 @@
       <c r="B111" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E111" s="2">
@@ -3606,7 +3599,7 @@
       <c r="B112" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E112" s="2">
@@ -3620,7 +3613,7 @@
       <c r="B113" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
       <c r="E113" s="2">
@@ -3634,7 +3627,7 @@
       <c r="B114" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E114" s="2">
@@ -3648,7 +3641,7 @@
       <c r="B115" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>320</v>
       </c>
       <c r="E115" s="2">
@@ -3662,7 +3655,7 @@
       <c r="B116" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>323</v>
       </c>
       <c r="E116" s="2">
@@ -3676,7 +3669,7 @@
       <c r="B117" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="2">
@@ -3690,7 +3683,7 @@
       <c r="B118" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E118" s="2">
@@ -3704,7 +3697,7 @@
       <c r="B119" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>332</v>
       </c>
       <c r="E119" s="2">
@@ -3718,7 +3711,7 @@
       <c r="B120" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E120" s="2">
@@ -3732,7 +3725,7 @@
       <c r="B121" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E121" s="2">
@@ -3746,7 +3739,7 @@
       <c r="B122" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E122" s="2">
@@ -3760,7 +3753,7 @@
       <c r="B123" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E123" s="2">
@@ -3774,7 +3767,7 @@
       <c r="B124" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>347</v>
       </c>
       <c r="E124" s="2">
@@ -3788,7 +3781,7 @@
       <c r="B125" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E125" s="2">
@@ -3802,7 +3795,7 @@
       <c r="B126" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>353</v>
       </c>
       <c r="E126" s="2">
@@ -3816,7 +3809,7 @@
       <c r="B127" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E127" s="2">
@@ -3830,7 +3823,7 @@
       <c r="B128" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E128" s="2">
@@ -3844,7 +3837,7 @@
       <c r="B129" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E129" s="2">
@@ -3858,7 +3851,7 @@
       <c r="B130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E130" s="2">
@@ -3872,7 +3865,7 @@
       <c r="B131" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E131" s="2">
@@ -3886,7 +3879,7 @@
       <c r="B132" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>371</v>
       </c>
       <c r="E132" s="2">
@@ -3900,7 +3893,7 @@
       <c r="B133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E133" s="2">
@@ -3914,7 +3907,7 @@
       <c r="B134" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E134" s="2">
@@ -3928,7 +3921,7 @@
       <c r="B135" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E135" s="2">
@@ -3942,7 +3935,7 @@
       <c r="B136" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E136" s="2">
@@ -3956,7 +3949,7 @@
       <c r="B137" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E137" s="2">
@@ -3970,7 +3963,7 @@
       <c r="B138" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E138" s="2">
@@ -3984,7 +3977,7 @@
       <c r="B139" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E139" s="2">
@@ -3998,7 +3991,7 @@
       <c r="B140" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E140" s="2">
@@ -4012,7 +4005,7 @@
       <c r="B141" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E141" s="2">
@@ -4026,7 +4019,7 @@
       <c r="B142" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E142" s="2">
@@ -4040,7 +4033,7 @@
       <c r="B143" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>402</v>
       </c>
       <c r="E143" s="2">
@@ -4054,7 +4047,7 @@
       <c r="B144" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>405</v>
       </c>
       <c r="E144" s="2">
@@ -4068,7 +4061,7 @@
       <c r="B145" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E145" s="2">
@@ -4082,7 +4075,7 @@
       <c r="B146" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>411</v>
       </c>
       <c r="E146" s="2">
@@ -4096,7 +4089,7 @@
       <c r="B147" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E147" s="2">
@@ -4110,7 +4103,7 @@
       <c r="B148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>417</v>
       </c>
       <c r="E148" s="2">
@@ -4124,7 +4117,7 @@
       <c r="B149" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E149" s="2">
@@ -4138,7 +4131,7 @@
       <c r="B150" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E150" s="2">
@@ -4152,7 +4145,7 @@
       <c r="B151" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="2">
@@ -4166,7 +4159,7 @@
       <c r="B152" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>429</v>
       </c>
       <c r="E152" s="2">
@@ -4180,7 +4173,7 @@
       <c r="B153" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E153" s="2">
@@ -4194,7 +4187,7 @@
       <c r="B154" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>411</v>
       </c>
       <c r="E154" s="2">
@@ -4208,7 +4201,7 @@
       <c r="B155" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>436</v>
       </c>
       <c r="E155" s="2">
@@ -4222,7 +4215,7 @@
       <c r="B156" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E156" s="2">
@@ -4236,7 +4229,7 @@
       <c r="B157" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>442</v>
       </c>
       <c r="E157" s="2">
@@ -4250,7 +4243,7 @@
       <c r="B158" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E158" s="2">
@@ -4264,7 +4257,7 @@
       <c r="B159" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E159" s="2">
@@ -4278,7 +4271,7 @@
       <c r="B160" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E160" s="2">
@@ -4292,7 +4285,7 @@
       <c r="B161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>454</v>
       </c>
       <c r="E161" s="2">
@@ -4306,7 +4299,7 @@
       <c r="B162" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E162" s="2">
@@ -4320,7 +4313,7 @@
       <c r="B163" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>460</v>
       </c>
       <c r="E163" s="2">
@@ -4334,7 +4327,7 @@
       <c r="B164" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>463</v>
       </c>
       <c r="E164" s="2">
@@ -4348,7 +4341,7 @@
       <c r="B165" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>466</v>
       </c>
       <c r="E165" s="2">
@@ -4362,7 +4355,7 @@
       <c r="B166" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>469</v>
       </c>
       <c r="E166" s="2">
@@ -4376,7 +4369,7 @@
       <c r="B167" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>472</v>
       </c>
       <c r="E167" s="2">
@@ -4390,7 +4383,7 @@
       <c r="B168" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>475</v>
       </c>
       <c r="E168" s="2">
@@ -4404,7 +4397,7 @@
       <c r="B169" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E169" s="2">
@@ -4418,7 +4411,7 @@
       <c r="B170" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>481</v>
       </c>
       <c r="E170" s="2">
@@ -4432,7 +4425,7 @@
       <c r="B171" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>484</v>
       </c>
       <c r="E171" s="2">
@@ -4446,7 +4439,7 @@
       <c r="B172" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>487</v>
       </c>
       <c r="E172" s="2">
@@ -4460,30 +4453,38 @@
       <c r="B173" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="2" t="s">
         <v>490</v>
       </c>
       <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="174" s="4" customFormat="1">
-      <c r="A174" s="4" t="s">
+    <row r="174" s="3" customFormat="1">
+      <c r="A174" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>174</v>
       </c>
-      <c r="M174" s="7"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="O174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4492,7 +4493,7 @@
       <c r="B175" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>497</v>
       </c>
       <c r="E175" s="2">
@@ -4506,7 +4507,7 @@
       <c r="B176" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="2" t="s">
         <v>500</v>
       </c>
       <c r="E176" s="2">
@@ -4520,7 +4521,7 @@
       <c r="B177" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="2" t="s">
         <v>503</v>
       </c>
       <c r="E177" s="2">
@@ -4534,7 +4535,7 @@
       <c r="B178" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>506</v>
       </c>
       <c r="E178" s="2">
@@ -4548,7 +4549,7 @@
       <c r="B179" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E179" s="2">
@@ -4562,7 +4563,7 @@
       <c r="B180" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>512</v>
       </c>
       <c r="E180" s="2">
@@ -4576,7 +4577,7 @@
       <c r="B181" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>515</v>
       </c>
       <c r="E181" s="2">
@@ -4590,7 +4591,7 @@
       <c r="B182" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>518</v>
       </c>
       <c r="E182" s="2">
@@ -4604,7 +4605,7 @@
       <c r="B183" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>521</v>
       </c>
       <c r="E183" s="2">
@@ -4618,7 +4619,7 @@
       <c r="B184" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>524</v>
       </c>
       <c r="E184" s="2">
@@ -4632,7 +4633,7 @@
       <c r="B185" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>527</v>
       </c>
       <c r="E185" s="2">
@@ -4646,7 +4647,7 @@
       <c r="B186" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>530</v>
       </c>
       <c r="E186" s="2">
@@ -4660,7 +4661,7 @@
       <c r="B187" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>533</v>
       </c>
       <c r="E187" s="2">
@@ -4674,7 +4675,7 @@
       <c r="B188" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>536</v>
       </c>
       <c r="E188" s="2">
@@ -4688,7 +4689,7 @@
       <c r="B189" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>539</v>
       </c>
       <c r="E189" s="2">
@@ -4702,30 +4703,38 @@
       <c r="B190" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>542</v>
       </c>
       <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="191" s="4" customFormat="1">
-      <c r="A191" s="4" t="s">
+    <row r="191" s="3" customFormat="1">
+      <c r="A191" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <v>191</v>
       </c>
-      <c r="M191" s="7"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="O191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -4734,7 +4743,7 @@
       <c r="B192" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="2" t="s">
         <v>548</v>
       </c>
       <c r="E192" s="2">
@@ -4748,7 +4757,7 @@
       <c r="B193" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>551</v>
       </c>
       <c r="E193" s="2">
